--- a/_xlsx_files/export(smallest).xlsx
+++ b/_xlsx_files/export(smallest).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>PARTCODE</t>
   </si>
@@ -37,82 +37,40 @@
     <t>salsify:data_inheritance_hierarchy_level_id</t>
   </si>
   <si>
-    <t>6971</t>
-  </si>
-  <si>
-    <t>00033674069714</t>
-  </si>
-  <si>
-    <t>6|Black Elder (Sambucus nigra L.) Extract (berry) standardized to anthocyanins from 3,200 mg of premium cultivar elderberries per teaspoon|100|mg|||**||</t>
-  </si>
-  <si>
-    <t>1|Calories||25| |||</t>
-  </si>
-  <si>
-    <t>2|Total Carbohydrate||8|g|3|%|†</t>
-  </si>
-  <si>
-    <t>3|Total Sugars||0|g|**||</t>
-  </si>
-  <si>
-    <t>4|Includes 0 g Added Sugars||0||||</t>
-  </si>
-  <si>
-    <t>5|Sugar Alcohol||8|g|**||</t>
-  </si>
-  <si>
-    <t>sorbitol, purified water, glycerin, natural flavor, preservatives to maintain freshness (citric acid, potassium sorbate)</t>
+    <t>6973</t>
+  </si>
+  <si>
+    <t>Sambucus Immune Syrup For Kids 4 oz</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>00033674069738</t>
+  </si>
+  <si>
+    <t>5|Proprietary Blend: Echinacea angustifolia (root) extract and Echinacea purpurea (flower) extract; Propolis|239|mg|||**||</t>
+  </si>
+  <si>
+    <t>6|Black Elder (Sambucus nigra L.) Extract (berry) standardized to anthocyanins from 1,600 mg of premium cultivar elderberries per teaspoon|50|mg|||**||</t>
+  </si>
+  <si>
+    <t>1|Calories||30| |||</t>
+  </si>
+  <si>
+    <t>2|Total Carbohydrate||7|g|3|%|†</t>
+  </si>
+  <si>
+    <t>3|Total Sugars ||5|g|**||</t>
+  </si>
+  <si>
+    <t>4|Includes Added Sugars ||5|g|10|%|†</t>
+  </si>
+  <si>
+    <t>fructose, puried water, glycerin, natural flavor, preservatives to maintain freshness (malic acid, potassium sorbate)</t>
   </si>
   <si>
     <t>variant</t>
-  </si>
-  <si>
-    <t>415</t>
-  </si>
-  <si>
-    <t>Echinacea-Goldenseal 100 vcaps</t>
-  </si>
-  <si>
-    <t>parent</t>
-  </si>
-  <si>
-    <t>00033674004159</t>
-  </si>
-  <si>
-    <t>1|Echinacea 7 Herb Blend  &lt;br&gt;Organic Echinacea purpurea (stem, leaf, flower), Goldenseal (root), Echinacea angustifolia (root),Burdock (root), Gentian (root), Cayenne Pepper (fruit), WoodBetony (stem, leaf, flower)|900|mg|||**||</t>
-  </si>
-  <si>
-    <t>plant-derived capsule (hypromellose)</t>
-  </si>
-  <si>
-    <t>6973</t>
-  </si>
-  <si>
-    <t>Sambucus Immune Syrup For Kids 4 oz</t>
-  </si>
-  <si>
-    <t>00033674069738</t>
-  </si>
-  <si>
-    <t>5|Proprietary Blend: Echinacea angustifolia (root) extract and Echinacea purpurea (flower) extract; Propolis|239|mg|||**||</t>
-  </si>
-  <si>
-    <t>6|Black Elder (Sambucus nigra L.) Extract (berry) standardized to anthocyanins from 1,600 mg of premium cultivar elderberries per teaspoon|50|mg|||**||</t>
-  </si>
-  <si>
-    <t>1|Calories||30| |||</t>
-  </si>
-  <si>
-    <t>2|Total Carbohydrate||7|g|3|%|†</t>
-  </si>
-  <si>
-    <t>3|Total Sugars ||5|g|**||</t>
-  </si>
-  <si>
-    <t>4|Includes Added Sugars ||5|g|10|%|†</t>
-  </si>
-  <si>
-    <t>fructose, puried water, glycerin, natural flavor, preservatives to maintain freshness (malic acid, potassium sorbate)</t>
   </si>
 </sst>
 </file>
@@ -153,7 +111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -213,13 +171,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -239,6 +284,33 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1381,164 +1453,122 @@
         <v>8</v>
       </c>
       <c r="B2" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" t="s" s="2">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" t="s" s="2">
         <v>10</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>17</v>
       </c>
     </row>
     <row r="3" ht="15.35" customHeight="1">
       <c r="A3" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s" s="2">
+      <c r="L3" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="M3" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="4" ht="15.35" customHeight="1">
-      <c r="A4" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>17</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="6"/>
     </row>
     <row r="5" ht="15.35" customHeight="1">
-      <c r="A5" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" t="s" s="2">
-        <v>20</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" ht="15.35" customHeight="1">
-      <c r="A6" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>17</v>
-      </c>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" ht="15.35" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="6"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/_xlsx_files/export(smallest).xlsx
+++ b/_xlsx_files/export(smallest).xlsx
@@ -1393,7 +1393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1570,6 +1570,51 @@
       <c r="L7" s="14"/>
       <c r="M7" s="15"/>
     </row>
+    <row r="8" ht="15.35" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" ht="15.35" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" ht="15.35" customHeight="1">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="15"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
